--- a/csv/Book1.xlsx
+++ b/csv/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,14 +488,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
